--- a/Examples/bfgt/bfgt0_model.xlsx
+++ b/Examples/bfgt/bfgt0_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\bfgt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F2E8F0-BA84-4D92-932D-991ED413B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BDC55-50D5-46B8-BA17-85B6D877B3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Diagram" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Exergy" sheetId="1" r:id="rId5"/>
     <sheet name="Format" sheetId="5" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="7" r:id="rId7"/>
-    <sheet name="WasteAllocation" sheetId="8" r:id="rId8"/>
+    <sheet name="WasteAllocationx" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -785,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -1124,14 +1124,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA66FE-D2E6-4FCF-A11A-B748A2D8485F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>50</v>
@@ -1157,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
@@ -1174,13 +1175,13 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>75</v>
@@ -1191,13 +1192,13 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>76</v>
@@ -1208,13 +1209,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -1225,13 +1226,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -1242,13 +1243,13 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -1259,13 +1260,13 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -1280,7 +1281,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D8</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1605,7 +1606,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Examples/bfgt/bfgt0_model.xlsx
+++ b/Examples/bfgt/bfgt0_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\bfgt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BDC55-50D5-46B8-BA17-85B6D877B3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF6F17-EA1D-41CA-A0E4-E46D4D513ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="7" xr2:uid="{244B8141-B151-42F3-9737-543437943E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Diagram" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Exergy" sheetId="1" r:id="rId5"/>
     <sheet name="Format" sheetId="5" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="7" r:id="rId7"/>
-    <sheet name="WasteAllocationx" sheetId="8" r:id="rId8"/>
+    <sheet name="WasteAllocation" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -1124,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA66FE-D2E6-4FCF-A11A-B748A2D8485F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DFC913-B828-4AEC-95E8-65C82D74D56E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
